--- a/Отчет по ролям.xlsx
+++ b/Отчет по ролям.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>Этап проекта</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Длительность</t>
   </si>
   <si>
-    <t>Задержка</t>
-  </si>
-  <si>
     <t>Конец</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>Создание базы данных</t>
   </si>
   <si>
-    <t>Разработка пользовательского интерфейса</t>
-  </si>
-  <si>
     <t>Тестирование</t>
   </si>
   <si>
@@ -84,15 +78,9 @@
     <t>Диаграмма развертывания</t>
   </si>
   <si>
-    <t>Разработка модуля "преподавателя"</t>
-  </si>
-  <si>
     <t>Разработка модуля "предмета"</t>
   </si>
   <si>
-    <t>Разработка модуля "аудитории"</t>
-  </si>
-  <si>
     <t>Разработка модуля "группы"</t>
   </si>
   <si>
@@ -132,7 +120,25 @@
     <t>Постановка задачи</t>
   </si>
   <si>
-    <t>Это задачи предстоит решить</t>
+    <t>Диаграмма IDEF0</t>
+  </si>
+  <si>
+    <t>Разработка мод. "преподавателя"</t>
+  </si>
+  <si>
+    <t>Разработка пользов. интерфейса</t>
+  </si>
+  <si>
+    <t>Эти задачи предстоит решить</t>
+  </si>
+  <si>
+    <t>Интерфейсный модуль "группы"</t>
+  </si>
+  <si>
+    <t>Интерфейсный модуль "аудитории"</t>
+  </si>
+  <si>
+    <t>Интерфейсный мод. "преподавателя"</t>
   </si>
 </sst>
 </file>
@@ -171,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -274,46 +280,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -341,8 +372,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.22480809363469356"/>
           <c:y val="0.11517731407481038"/>
-          <c:w val="0.74655123661426004"/>
-          <c:h val="0.88410602340236188"/>
+          <c:w val="0.74655123661426048"/>
+          <c:h val="0.88410602340236155"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -369,9 +400,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$3:$B$31</c:f>
+              <c:f>Лист1!$B$3:$B$34</c:f>
               <c:strCache>
-                <c:ptCount val="29"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>ТЗ</c:v>
                 </c:pt>
@@ -421,42 +452,51 @@
                   <c:v>Диаграмма Ганта</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Диаграмма IDEF0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Создание базы данных</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>Разработка пользовательского интерфейса</c:v>
-                </c:pt>
                 <c:pt idx="18">
+                  <c:v>Разработка пользов. интерфейса</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>Разработка  класса базы данных</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Диаграмма развертывания</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>Диаграмма объектов</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>Разработка модуля "преподавателя"</c:v>
-                </c:pt>
                 <c:pt idx="22">
+                  <c:v>Интерфейсный мод. "преподавателя"</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Интерфейсный модуль "группы"</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Интерфейсный модуль "аудитории"</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Разработка модуля "предмета"</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Разработка мод. "преподавателя"</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>Разработка модуля "группы"</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>Разработка модуля "аудитории"</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Разработка модуля "предмета"</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>Разработка модуля "расписания"</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>Тестирование</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>Подведение итогов</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>Защита работы</c:v>
                 </c:pt>
               </c:strCache>
@@ -464,10 +504,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$3:$C$32</c:f>
+              <c:f>Лист1!$C$3:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>dd/mm/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43516</c:v>
                 </c:pt>
@@ -517,30 +557,33 @@
                   <c:v>43547</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>43547</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>43549</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43551</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43557</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43558</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43559</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43565</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43567</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>43573</c:v>
-                </c:pt>
                 <c:pt idx="24">
+                  <c:v>43571</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -693,7 +736,7 @@
             <c:idx val="16"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFFF99"/>
+                <a:srgbClr val="FF00FF"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -701,7 +744,7 @@
             <c:idx val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
+                <a:srgbClr val="FFFF99"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -709,7 +752,7 @@
             <c:idx val="18"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFFF99"/>
+                <a:srgbClr val="FF00FF"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -717,7 +760,7 @@
             <c:idx val="19"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
+                <a:srgbClr val="FFFF99"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -725,7 +768,7 @@
             <c:idx val="20"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFFF99"/>
+                <a:srgbClr val="FF00FF"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -733,7 +776,7 @@
             <c:idx val="21"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
+                <a:srgbClr val="FFFF99"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -741,7 +784,7 @@
             <c:idx val="22"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFFF99"/>
+                <a:srgbClr val="FF00FF"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -749,7 +792,7 @@
             <c:idx val="23"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
+                <a:srgbClr val="FFFF99"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -757,15 +800,15 @@
             <c:idx val="24"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:srgbClr val="FF00FF"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$3:$B$31</c:f>
+              <c:f>Лист1!$B$3:$B$34</c:f>
               <c:strCache>
-                <c:ptCount val="29"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>ТЗ</c:v>
                 </c:pt>
@@ -815,42 +858,51 @@
                   <c:v>Диаграмма Ганта</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Диаграмма IDEF0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Создание базы данных</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>Разработка пользовательского интерфейса</c:v>
-                </c:pt>
                 <c:pt idx="18">
+                  <c:v>Разработка пользов. интерфейса</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>Разработка  класса базы данных</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Диаграмма развертывания</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>Диаграмма объектов</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>Разработка модуля "преподавателя"</c:v>
-                </c:pt>
                 <c:pt idx="22">
+                  <c:v>Интерфейсный мод. "преподавателя"</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Интерфейсный модуль "группы"</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Интерфейсный модуль "аудитории"</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Разработка модуля "предмета"</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Разработка мод. "преподавателя"</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>Разработка модуля "группы"</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>Разработка модуля "аудитории"</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Разработка модуля "предмета"</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>Разработка модуля "расписания"</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>Тестирование</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>Подведение итогов</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>Защита работы</c:v>
                 </c:pt>
               </c:strCache>
@@ -858,10 +910,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$3:$D$31</c:f>
+              <c:f>Лист1!$D$3:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -911,13 +963,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2</c:v>
@@ -926,12 +978,15 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -940,11 +995,11 @@
         </c:ser>
         <c:gapWidth val="40"/>
         <c:overlap val="100"/>
-        <c:axId val="117156480"/>
-        <c:axId val="117162368"/>
+        <c:axId val="108375424"/>
+        <c:axId val="108381312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117156480"/>
+        <c:axId val="108375424"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -960,14 +1015,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117162368"/>
+        <c:crossAx val="108381312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117162368"/>
+        <c:axId val="108381312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43515"/>
@@ -986,7 +1041,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117156480"/>
+        <c:crossAx val="108375424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -997,7 +1052,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1008,16 +1063,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333361</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
+      <xdr:rowOff>54427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>280021</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57760</xdr:rowOff>
+      <xdr:colOff>97971</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1822,10 +1877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G32"/>
+  <dimension ref="B2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1833,12 +1888,11 @@
     <col min="2" max="2" width="39.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.6">
+    <row r="2" spans="2:6" ht="15.6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1852,15 +1906,12 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15.6">
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15.6">
-      <c r="B3" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>43516</v>
@@ -1868,19 +1919,16 @@
       <c r="D3" s="2">
         <v>6</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="3">
         <v>43522</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.6">
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15.6">
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3">
         <v>43520</v>
@@ -1888,19 +1936,16 @@
       <c r="D4" s="2">
         <v>4</v>
       </c>
-      <c r="E4" s="2">
-        <v>-2</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="3">
         <v>43524</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.6">
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.6">
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3">
         <v>43524</v>
@@ -1908,19 +1953,16 @@
       <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="3">
         <v>43527</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.6">
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.6">
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3">
         <v>43526</v>
@@ -1928,19 +1970,16 @@
       <c r="D6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="3">
         <v>43528</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.6">
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.6">
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3">
         <v>43526</v>
@@ -1948,19 +1987,16 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
-        <v>-3</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="3">
         <v>43527</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.6">
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.6">
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3">
         <v>43527</v>
@@ -1968,19 +2004,16 @@
       <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="3">
         <v>43529</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.6">
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.6">
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3">
         <v>43528</v>
@@ -1988,19 +2021,16 @@
       <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="3">
         <v>43530</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.6">
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.6">
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3">
         <v>43532</v>
@@ -2008,19 +2038,16 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="3">
         <v>43533</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.6">
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15.6">
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3">
         <v>43532</v>
@@ -2028,19 +2055,16 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="3">
         <v>43534</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15.6">
+      <c r="F11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.6">
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3">
         <v>43534</v>
@@ -2048,19 +2072,16 @@
       <c r="D12" s="2">
         <v>3</v>
       </c>
-      <c r="E12" s="2">
-        <v>-3</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="3">
         <v>43537</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.6">
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.6">
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3">
         <v>43534</v>
@@ -2068,19 +2089,16 @@
       <c r="D13" s="2">
         <v>3</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="3">
         <v>43537</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.6">
+      <c r="F13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.6">
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3">
         <v>43537</v>
@@ -2088,19 +2106,16 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
         <v>43538</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.6">
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.6">
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="3">
         <v>43539</v>
@@ -2108,19 +2123,16 @@
       <c r="D15" s="2">
         <v>4</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15" s="3">
         <v>43543</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15.6">
+      <c r="F15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.6">
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3">
         <v>43540</v>
@@ -2128,19 +2140,16 @@
       <c r="D16" s="2">
         <v>3</v>
       </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="E16" s="3">
         <v>43543</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.6">
+      <c r="F16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.6">
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3">
         <v>43545</v>
@@ -2148,19 +2157,16 @@
       <c r="D17" s="2">
         <v>3</v>
       </c>
-      <c r="E17" s="2">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E17" s="3">
         <v>43548</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.6">
+      <c r="F17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.6">
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3">
         <v>43547</v>
@@ -2168,249 +2174,251 @@
       <c r="D18" s="2">
         <v>2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
+        <v>43549</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.6">
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43547</v>
+      </c>
+      <c r="D19" s="5">
         <v>2</v>
       </c>
-      <c r="F18" s="3">
+      <c r="E19" s="6">
         <v>43549</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15.6">
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="F19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.6">
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3">
         <v>43549</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>43554</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="15.6">
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3">
-        <v>43551</v>
       </c>
       <c r="D20" s="2">
         <v>5</v>
       </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="3">
+        <v>43554</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.6">
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43551</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
         <v>43556</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="15.6">
-      <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="F21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.6">
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3">
         <v>43557</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>43559</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="15.6">
-      <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3">
-        <v>43558</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
       </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>43560</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="15.6">
+      <c r="E22" s="3">
+        <v>43559</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.6">
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="3">
-        <v>43559</v>
+        <v>43558</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
       </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="E23" s="3">
+        <v>43560</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.6">
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3">
+        <v>43559</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
         <v>43561</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.6">
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="F24" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.6">
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3">
         <v>43565</v>
-      </c>
-      <c r="D24" s="2">
-        <v>6</v>
-      </c>
-      <c r="E24" s="2">
-        <v>-2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>43571</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="15.6">
-      <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="3">
-        <v>43567</v>
       </c>
       <c r="D25" s="2">
         <v>6</v>
       </c>
-      <c r="E25" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>43573</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.6">
+      <c r="E25" s="3">
+        <v>43571</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.6">
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3">
-        <v>43573</v>
+        <v>43567</v>
       </c>
       <c r="D26" s="2">
         <v>6</v>
       </c>
-      <c r="E26" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>43579</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="15.6">
+      <c r="E26" s="3">
+        <v>43573</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.6">
       <c r="B27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="8">
+        <v>43571</v>
+      </c>
+      <c r="D27" s="7">
+        <v>6</v>
+      </c>
+      <c r="E27" s="8">
+        <v>43575</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15.6">
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.6">
+      <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" ht="15.6">
-      <c r="B28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="15.6">
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15.6">
+      <c r="B30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.6">
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.6">
+      <c r="B32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.6">
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.6">
+      <c r="B34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="15.6">
-      <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="15.6">
-      <c r="B31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="15.6">
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15.6">
+      <c r="B35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C27:F31"/>
+    <mergeCell ref="C28:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
